--- a/data/output/FV2504_FV2410/UTILMD/55015.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55015.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="237">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="237">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -852,6 +852,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U103" totalsRowShown="0">
+  <autoFilter ref="A1:U103"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,7 +1171,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5721,5 +5754,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55015.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="338">
   <si>
     <t>#</t>
   </si>
@@ -5478,44 +5478,42 @@
       <c r="V82" s="5"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M83" s="5" t="s">
+      <c r="K83" s="2"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5" t="s">
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="V83" s="5"/>
+      <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -5653,9 +5651,7 @@
         <v>203</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>222</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>35</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55015.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55015.xlsx
@@ -1139,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1162,6 +1162,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1170,6 +1173,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1612,7 +1618,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1976,7 +1982,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2122,7 +2128,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2324,7 +2330,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2632,7 +2638,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2832,7 +2838,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3206,7 +3212,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3514,7 +3520,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3696,26 +3702,26 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M43" s="5"/>
@@ -3733,33 +3739,33 @@
       <c r="A44" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M44" s="5"/>
@@ -3777,33 +3783,33 @@
       <c r="A45" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M45" s="5"/>
@@ -3821,31 +3827,31 @@
       <c r="A46" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M46" s="5"/>
@@ -3863,31 +3869,31 @@
       <c r="A47" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M47" s="5"/>
@@ -3905,31 +3911,31 @@
       <c r="A48" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M48" s="5"/>
@@ -3947,31 +3953,31 @@
       <c r="A49" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M49" s="5"/>
@@ -3989,31 +3995,31 @@
       <c r="A50" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M50" s="5"/>
@@ -4031,31 +4037,31 @@
       <c r="A51" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M51" s="5"/>
@@ -4073,31 +4079,31 @@
       <c r="A52" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M52" s="5"/>
@@ -4115,33 +4121,33 @@
       <c r="A53" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K53" s="8" t="s">
+      <c r="J53" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K53" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="L53" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M53" s="5"/>
@@ -4162,26 +4168,26 @@
       <c r="B54" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="L54" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M54" s="5"/>
@@ -4199,33 +4205,33 @@
       <c r="A55" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9" t="s">
+      <c r="J55" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M55" s="5"/>
@@ -4243,33 +4249,33 @@
       <c r="A56" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="J56" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M56" s="5"/>
@@ -4287,31 +4293,31 @@
       <c r="A57" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M57" s="5"/>
@@ -4339,29 +4345,29 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11" t="s">
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11" t="s">
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="V58" s="11"/>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4377,35 +4383,35 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="Q59" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11" t="s">
+      <c r="S59" s="13"/>
+      <c r="T59" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="U59" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V59" s="11"/>
+      <c r="U59" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -4421,35 +4427,35 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="R60" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="U60" s="11" t="s">
+      <c r="U60" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="V60" s="11"/>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4465,33 +4471,33 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11" t="s">
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="U61" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V61" s="11"/>
+      <c r="U61" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4507,33 +4513,33 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11" t="s">
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4549,33 +4555,33 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11" t="s">
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -4591,33 +4597,33 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4633,33 +4639,33 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11" t="s">
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4675,33 +4681,33 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11" t="s">
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11" t="s">
+      <c r="S66" s="13"/>
+      <c r="T66" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="U66" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V66" s="11"/>
+      <c r="U66" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -4717,33 +4723,33 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11" t="s">
+      <c r="S67" s="13"/>
+      <c r="T67" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="U67" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V67" s="11"/>
+      <c r="U67" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -4759,33 +4765,33 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11" t="s">
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11" t="s">
+      <c r="S68" s="13"/>
+      <c r="T68" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="U68" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V68" s="11" t="s">
+      <c r="U68" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V68" s="13" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4803,35 +4809,35 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q69" s="11" t="s">
+      <c r="Q69" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R69" s="11" t="s">
+      <c r="R69" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="U69" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V69" s="11"/>
+      <c r="U69" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -4847,35 +4853,35 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="R70" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11" t="s">
+      <c r="S70" s="13"/>
+      <c r="T70" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="U70" s="11" t="s">
+      <c r="U70" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="V70" s="11"/>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -4891,54 +4897,54 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11" t="s">
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11" t="s">
+      <c r="S71" s="13"/>
+      <c r="T71" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="U71" s="11" t="s">
+      <c r="U71" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="V71" s="11"/>
+      <c r="V71" s="13"/>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="2"/>
       <c r="F72" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="6" t="s">
         <v>211</v>
       </c>
@@ -4948,22 +4954,22 @@
       <c r="L72" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="M72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="N72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O72" s="5" t="s">
+      <c r="O72" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P72" s="5"/>
+      <c r="P72" s="2"/>
       <c r="Q72" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
       <c r="U72" s="6" t="s">
         <v>208</v>
       </c>
@@ -5148,25 +5154,25 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
       <c r="J76" s="6" t="s">
         <v>212</v>
       </c>
@@ -5176,22 +5182,22 @@
       <c r="L76" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="O76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P76" s="5"/>
+      <c r="P76" s="2"/>
       <c r="Q76" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
       <c r="U76" s="6" t="s">
         <v>236</v>
       </c>
@@ -5322,22 +5328,22 @@
       <c r="B79" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8" t="s">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="L79" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M79" s="5"/>
@@ -5355,27 +5361,27 @@
       <c r="A80" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M80" s="5"/>
@@ -5393,33 +5399,33 @@
       <c r="A81" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="J81" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M81" s="5"/>
@@ -5437,33 +5443,33 @@
       <c r="A82" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="L82" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M82" s="5"/>
@@ -5498,7 +5504,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -5678,41 +5684,41 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>202</v>
       </c>
       <c r="K87" s="6"/>
       <c r="L87" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="N87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5" t="s">
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>202</v>
       </c>
       <c r="V87" s="6" t="s">
@@ -5890,22 +5896,22 @@
       <c r="B91" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8" t="s">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="K91" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="L91" s="9" t="s">
+      <c r="L91" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M91" s="5"/>
@@ -5923,27 +5929,27 @@
       <c r="A92" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8" t="s">
+      <c r="E92" s="9"/>
+      <c r="F92" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8" t="s">
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M92" s="5"/>
@@ -5961,33 +5967,33 @@
       <c r="A93" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8" t="s">
+      <c r="H93" s="9"/>
+      <c r="I93" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J93" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="9" t="s">
+      <c r="J93" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M93" s="5"/>
@@ -6008,24 +6014,24 @@
       <c r="B94" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
+      <c r="E94" s="9"/>
+      <c r="F94" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8" t="s">
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9" t="s">
+      <c r="K94" s="9"/>
+      <c r="L94" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M94" s="5"/>
@@ -6043,33 +6049,33 @@
       <c r="A95" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8" t="s">
+      <c r="H95" s="9"/>
+      <c r="I95" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J95" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9" t="s">
+      <c r="J95" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K95" s="9"/>
+      <c r="L95" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M95" s="5"/>
@@ -6087,33 +6093,33 @@
       <c r="A96" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8" t="s">
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="J96" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="K96" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="L96" s="9" t="s">
+      <c r="L96" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M96" s="5"/>
@@ -6134,20 +6140,20 @@
       <c r="B97" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M97" s="5"/>
@@ -6165,27 +6171,27 @@
       <c r="A98" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
+      <c r="E98" s="9"/>
+      <c r="F98" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M98" s="5"/>
@@ -6203,33 +6209,33 @@
       <c r="A99" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J99" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="J99" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M99" s="5"/>
@@ -6247,33 +6253,33 @@
       <c r="A100" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="J100" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>223</v>
       </c>
       <c r="M100" s="5"/>
@@ -6288,48 +6294,48 @@
       <c r="V100" s="5"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5" t="s">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5" t="s">
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K101" s="5"/>
+      <c r="K101" s="2"/>
       <c r="L101" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="M101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5" t="s">
+      <c r="N101" s="2"/>
+      <c r="O101" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P101" s="5"/>
+      <c r="P101" s="2"/>
       <c r="Q101" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5" t="s">
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="V101" s="5"/>
+      <c r="V101" s="2"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
